--- a/PI02-ANALISTA_DE_INVERSION/ROE/kpi_pepsico.xlsx
+++ b/PI02-ANALISTA_DE_INVERSION/ROE/kpi_pepsico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03a7e76c497c2c87/Escritorio/PI03-ANALISTA_DE_INVERSION/ROE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03a7e76c497c2c87/Escritorio/PI02-ANALISTA_DE_INVERSION/ROE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{7F7F7E3F-82E6-4EDD-A5A3-6EB2F842E1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92522498-E4D9-4266-B3EA-FF4B9E9E67AD}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{7F7F7E3F-82E6-4EDD-A5A3-6EB2F842E1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5884F6D3-D04C-442E-AA6A-1045D737ECA4}"/>
   <bookViews>
-    <workbookView xWindow="29715" yWindow="915" windowWidth="27000" windowHeight="12390" xr2:uid="{4D695BD8-830F-477C-A309-604CD38D1807}"/>
+    <workbookView xWindow="28830" yWindow="3090" windowWidth="27000" windowHeight="12390" xr2:uid="{4D695BD8-830F-477C-A309-604CD38D1807}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Rentabilidad</t>
+    <t>fecha</t>
   </si>
   <si>
-    <t>KPI_Pepsico</t>
+    <t>ventas</t>
+  </si>
+  <si>
+    <t>kpi</t>
   </si>
 </sst>
 </file>
@@ -49,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00%;\-#,##0.00%;&quot;—&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00%;\-#,##0.00%;&quot;—&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -80,14 +83,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661FEA81-B8A3-495F-A3CA-306FDA190AE0}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,23 +421,30 @@
     <col min="1" max="1" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2022</v>
       </c>
       <c r="B2" s="2">
         <v>0.19939999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="3">
+        <f>B2+B3/2</f>
+        <v>0.29120000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2021</v>
       </c>
@@ -441,7 +452,7 @@
         <v>0.18360000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -449,7 +460,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2019</v>
       </c>
@@ -457,7 +468,7 @@
         <v>0.13689999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2018</v>
       </c>
@@ -465,7 +476,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2017</v>
       </c>
@@ -473,7 +484,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
@@ -481,7 +492,7 @@
         <v>8.6699999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2015</v>
       </c>
@@ -489,7 +500,7 @@
         <v>6.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2014</v>
       </c>
@@ -497,7 +508,7 @@
         <v>0.12809999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2013</v>
       </c>
@@ -505,7 +516,7 @@
         <v>0.1535</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2012</v>
       </c>
@@ -513,7 +524,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2011</v>
       </c>
@@ -521,7 +532,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2010</v>
       </c>
@@ -529,7 +540,7 @@
         <v>0.21790000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2009</v>
       </c>
@@ -537,7 +548,7 @@
         <v>0.18709999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2008</v>
       </c>
